--- a/Resultados/Escenario 6/D.xlsx
+++ b/Resultados/Escenario 6/D.xlsx
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1552.741879724122</v>
+        <v>1553.478119163911</v>
       </c>
     </row>
     <row r="4">
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1835.208277327362</v>
+        <v>1836.506925775788</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1563.247017964291</v>
+        <v>1563.188604247975</v>
       </c>
     </row>
     <row r="6">
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2129.999999999999</v>
+        <v>2021.138579099334</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1738.660540955086</v>
+        <v>1738.542597406698</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2467.529755458215</v>
+        <v>2468.329194448398</v>
       </c>
     </row>
     <row r="9">
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1271</v>
+        <v>1135.323213780111</v>
       </c>
     </row>
     <row r="10">
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2744.602008654981</v>
+        <v>2745.384699643493</v>
       </c>
     </row>
     <row r="11">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9393701113695</v>
+        <v>339.0622579761948</v>
       </c>
     </row>
     <row r="12">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>274.8232627520729</v>
+        <v>277.1845530746541</v>
       </c>
     </row>
     <row r="13">
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>177.8301075268828</v>
+        <v>182.7252209700655</v>
       </c>
     </row>
     <row r="14">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1434.953727373606</v>
+        <v>1434.873440635254</v>
       </c>
     </row>
     <row r="15">
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>2412.583484719494</v>
+        <v>2412.427853706477</v>
       </c>
     </row>
     <row r="16">
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1439.268290721842</v>
+        <v>1526.022315918081</v>
       </c>
     </row>
     <row r="18">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1814.753727736338</v>
+        <v>1809.331970003207</v>
       </c>
     </row>
     <row r="19">
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1536.605096057093</v>
+        <v>1536.435938293414</v>
       </c>
     </row>
     <row r="20">
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1987.808864924034</v>
+        <v>1994.744137751732</v>
       </c>
     </row>
     <row r="21">
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1713.324888182578</v>
+        <v>1712.508019903009</v>
       </c>
     </row>
     <row r="22">
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>2439.852234791748</v>
+        <v>2442.656894191417</v>
       </c>
     </row>
     <row r="23">
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1099.762157847349</v>
+        <v>1110.211032587925</v>
       </c>
     </row>
     <row r="24">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>2720.481536120808</v>
+        <v>2720.621912336874</v>
       </c>
     </row>
     <row r="25">
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>311.7251954823987</v>
+        <v>314.2513091536712</v>
       </c>
     </row>
     <row r="26">
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>189.3551095193125</v>
+        <v>252.6550302282358</v>
       </c>
     </row>
     <row r="27">
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>260.1698924731154</v>
+        <v>158.4683221982814</v>
       </c>
     </row>
     <row r="28">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1410.688468957743</v>
+        <v>1410.318453468211</v>
       </c>
     </row>
     <row r="29">
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>2388.068675092421</v>
+        <v>2387.31567251429</v>
       </c>
     </row>
     <row r="30">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1411.752706758626</v>
+        <v>1498.398267174326</v>
       </c>
     </row>
     <row r="32">
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1781.471104599725</v>
+        <v>1782.258947649756</v>
       </c>
     </row>
     <row r="33">
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1510.295068233619</v>
+        <v>1509.648016002776</v>
       </c>
     </row>
     <row r="34">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1967.583474518578</v>
+        <v>1968.315815391918</v>
       </c>
     </row>
     <row r="35">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1687.082630187339</v>
+        <v>1686.400554534498</v>
       </c>
     </row>
     <row r="36">
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>2416.520604464939</v>
+        <v>2416.907072276868</v>
       </c>
     </row>
     <row r="37">
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1082.167825460579</v>
+        <v>1085.090100405457</v>
       </c>
     </row>
     <row r="38">
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>2695.463856426287</v>
+        <v>2695.700453057068</v>
       </c>
     </row>
     <row r="39">
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>285.4560339496447</v>
+        <v>289.4261440366918</v>
       </c>
     </row>
     <row r="40">
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>232.0181534116546</v>
+        <v>228.1171935988259</v>
       </c>
     </row>
     <row r="41">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>115.8495271902684</v>
+        <v>134.2074295708881</v>
       </c>
     </row>
     <row r="42">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1386.306164310106</v>
+        <v>1385.795766183739</v>
       </c>
     </row>
     <row r="43">
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>2362.877430016614</v>
+        <v>2362.250929652274</v>
       </c>
     </row>
     <row r="44">
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1471.163639684512</v>
+        <v>1471.041674156415</v>
       </c>
     </row>
     <row r="46">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1754.784298289853</v>
+        <v>1755.057006109326</v>
       </c>
     </row>
     <row r="47">
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1484.062156835692</v>
+        <v>1482.883717568779</v>
       </c>
     </row>
     <row r="48">
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1941.564276445141</v>
+        <v>1941.931373670317</v>
       </c>
     </row>
     <row r="49">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1661.536224726661</v>
+        <v>1660.386407138335</v>
       </c>
     </row>
     <row r="50">
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>2372.625814662362</v>
+        <v>2391.202963659599</v>
       </c>
     </row>
     <row r="51">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1011.97535125394</v>
+        <v>1059.987343356649</v>
       </c>
     </row>
     <row r="52">
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>2671.025341024328</v>
+        <v>2670.96735783256</v>
       </c>
     </row>
     <row r="53">
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>260.8237451767518</v>
+        <v>264.6110595648724</v>
       </c>
     </row>
     <row r="54">
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>207.5959619435362</v>
+        <v>203.5853247113519</v>
       </c>
     </row>
     <row r="55">
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>91.66230076672218</v>
+        <v>109.9491602724083</v>
       </c>
     </row>
     <row r="56">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1362.214581255881</v>
+        <v>1361.255049970086</v>
       </c>
     </row>
     <row r="57">
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>2338.286082157761</v>
+        <v>2337.10514630955</v>
       </c>
     </row>
     <row r="58">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1443.544533537136</v>
+        <v>1443.41328184164</v>
       </c>
     </row>
     <row r="60">
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1728.010580715985</v>
+        <v>1728.048862379423</v>
       </c>
     </row>
     <row r="61">
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1457.313160504823</v>
+        <v>1456.124200915386</v>
       </c>
     </row>
     <row r="62">
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1915.568652148425</v>
+        <v>1915.497975912099</v>
       </c>
     </row>
     <row r="63">
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>1635.491163352003</v>
+        <v>1634.341345763678</v>
       </c>
     </row>
     <row r="64">
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>2365.706846609897</v>
+        <v>2365.388454588872</v>
       </c>
     </row>
     <row r="65">
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>973.1867470909192</v>
+        <v>1034.875162164461</v>
       </c>
     </row>
     <row r="66">
@@ -1687,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>2646.436770417816</v>
+        <v>2646.149585188698</v>
       </c>
     </row>
     <row r="67">
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>211.8431709483248</v>
+        <v>239.7932869210117</v>
       </c>
     </row>
     <row r="68">
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>227.0091252766451</v>
+        <v>179.0518429206541</v>
       </c>
     </row>
     <row r="69">
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>68.19818824918002</v>
+        <v>85.68857666577605</v>
       </c>
     </row>
     <row r="70">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>1337.650641019527</v>
+        <v>1336.744073612414</v>
       </c>
     </row>
     <row r="71">
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>2313.155979818622</v>
+        <v>2311.992965117363</v>
       </c>
     </row>
     <row r="72">
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1416.273022791848</v>
+        <v>1415.853372139024</v>
       </c>
     </row>
     <row r="74">
@@ -1839,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>1700.689667529491</v>
+        <v>1700.889529419926</v>
       </c>
     </row>
     <row r="75">
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>1430.62353632455</v>
+        <v>1429.32848691485</v>
       </c>
     </row>
     <row r="76">
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>1888.843472202637</v>
+        <v>1889.022791858873</v>
       </c>
     </row>
     <row r="77">
@@ -1896,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1607.323907435042</v>
+        <v>1608.278811270742</v>
       </c>
     </row>
     <row r="78">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>2340.024095458408</v>
+        <v>2339.651023808807</v>
       </c>
     </row>
     <row r="79">
@@ -1934,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1006.1581067491</v>
+        <v>1009.736588010398</v>
       </c>
     </row>
     <row r="80">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>2621.807169816966</v>
+        <v>2621.29148996419</v>
       </c>
     </row>
     <row r="81">
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>184.8190427146237</v>
+        <v>214.9820853643632</v>
       </c>
     </row>
     <row r="82">
@@ -1991,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>114.2183678473448</v>
+        <v>154.5225085953916</v>
       </c>
     </row>
     <row r="83">
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>47.74640595242818</v>
+        <v>61.43580302165719</v>
       </c>
     </row>
     <row r="84">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>1313.175463480749</v>
+        <v>1312.210591821717</v>
       </c>
     </row>
     <row r="85">
@@ -2048,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>2288.111002927511</v>
+        <v>2286.899985154057</v>
       </c>
     </row>
     <row r="86">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>1389.257438828633</v>
+        <v>1388.403665072083</v>
       </c>
     </row>
     <row r="88">
@@ -2105,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>1674.447422545139</v>
+        <v>1673.857980972352</v>
       </c>
     </row>
     <row r="89">
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>1403.597062947308</v>
+        <v>1402.662160225615</v>
       </c>
     </row>
     <row r="90">
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>1863.147388793443</v>
+        <v>1862.635535984296</v>
       </c>
     </row>
     <row r="91">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1583.387856831115</v>
+        <v>1582.111438068129</v>
       </c>
     </row>
     <row r="92">
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>2313.877081980654</v>
+        <v>2313.973031404155</v>
       </c>
     </row>
     <row r="93">
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>988.0136674923933</v>
+        <v>984.6631164956298</v>
       </c>
     </row>
     <row r="94">
@@ -2219,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>2596.548220702516</v>
+        <v>2596.470039998318</v>
       </c>
     </row>
     <row r="95">
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>231.6622588211876</v>
+        <v>190.1532240108245</v>
       </c>
     </row>
     <row r="96">
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>36.50594406845448</v>
+        <v>129.9817687401764</v>
       </c>
     </row>
     <row r="97">
@@ -2276,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>16.95002945430679</v>
+        <v>37.17060931899687</v>
       </c>
     </row>
     <row r="98">
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>1288.54162326711</v>
+        <v>1287.710562838662</v>
       </c>
     </row>
     <row r="99">
@@ -2314,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>2262.916108749386</v>
+        <v>2261.818821331597</v>
       </c>
     </row>
     <row r="100">
@@ -2352,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>1361.679354865417</v>
+        <v>1360.937177330461</v>
       </c>
     </row>
     <row r="102">
@@ -2371,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>1647.244352828841</v>
+        <v>1646.597524164045</v>
       </c>
     </row>
     <row r="103">
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>1376.938155468793</v>
+        <v>1375.850224217384</v>
       </c>
     </row>
     <row r="104">
@@ -2409,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>1836.853966969022</v>
+        <v>1836.333588159072</v>
       </c>
     </row>
     <row r="105">
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>1557.255429865061</v>
+        <v>1556.118796048311</v>
       </c>
     </row>
     <row r="106">
@@ -2447,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>2288.251542957438</v>
+        <v>2288.207362615551</v>
       </c>
     </row>
     <row r="107">
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>962.9337443647228</v>
+        <v>959.5294299271</v>
       </c>
     </row>
     <row r="108">
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>2571.715327090912</v>
+        <v>2571.652934542897</v>
       </c>
     </row>
     <row r="109">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>327.811827956989</v>
+        <v>165.3354513669619</v>
       </c>
     </row>
     <row r="110">
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>61.24248816325962</v>
+        <v>105.4482869494768</v>
       </c>
     </row>
     <row r="111">
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>12.91186722923703</v>
       </c>
     </row>
     <row r="112">
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>1264.038249003294</v>
+        <v>1263.129975931383</v>
       </c>
     </row>
     <row r="113">
@@ -2580,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>2237.837529707736</v>
+        <v>2236.639435838334</v>
       </c>
     </row>
     <row r="114">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>1238.836938</v>
+        <v>1238.4592345</v>
       </c>
     </row>
     <row r="115">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>902.3191330878644</v>
+        <v>1333.321593367244</v>
       </c>
     </row>
     <row r="116">
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>1619.4703450965</v>
+        <v>1619.381812831241</v>
       </c>
     </row>
     <row r="117">
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>1350.232679545709</v>
+        <v>1349.150615398094</v>
       </c>
     </row>
     <row r="118">
@@ -2675,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>1809.764634445408</v>
+        <v>1809.886727631197</v>
       </c>
     </row>
     <row r="119">
@@ -2694,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>1531.350153436641</v>
+        <v>1530.030051877956</v>
       </c>
     </row>
     <row r="120">
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>2262.743485499615</v>
+        <v>2262.507423910562</v>
       </c>
     </row>
     <row r="121">
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>933.333659946732</v>
+        <v>934.4614486984046</v>
       </c>
     </row>
     <row r="122">
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>2547.176877477689</v>
+        <v>2546.935392056525</v>
       </c>
     </row>
     <row r="123">
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>116.4516743199829</v>
+        <v>140.5176787231012</v>
       </c>
     </row>
     <row r="124">
@@ -2789,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>132.0440107966069</v>
+        <v>80.91480515877629</v>
       </c>
     </row>
     <row r="125">
@@ -2808,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>3.380645161290886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1239.52685176822</v>
+        <v>1238.596494140685</v>
       </c>
     </row>
     <row r="127">
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>2212.737567479382</v>
+        <v>2211.551692573811</v>
       </c>
     </row>
     <row r="128">
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>1214.163062</v>
+        <v>1210.832659214286</v>
       </c>
     </row>
     <row r="129">
@@ -2884,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>1310.507791981608</v>
+        <v>1305.806009404028</v>
       </c>
     </row>
     <row r="130">
@@ -2903,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>1595.682058405062</v>
+        <v>1592.352793242202</v>
       </c>
     </row>
     <row r="131">
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>1328.456146739189</v>
+        <v>1322.308681377016</v>
       </c>
     </row>
     <row r="132">
@@ -2941,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>1786.844376601724</v>
+        <v>1783.506952531084</v>
       </c>
     </row>
     <row r="133">
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>1509.927351998998</v>
+        <v>1503.99747130207</v>
       </c>
     </row>
     <row r="134">
@@ -2979,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>2240.357051081553</v>
+        <v>2236.738997789143</v>
       </c>
     </row>
     <row r="135">
@@ -2998,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>910.7099580172153</v>
+        <v>909.3125781470198</v>
       </c>
     </row>
     <row r="136">
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>2525.457506692582</v>
+        <v>2522.006252571006</v>
       </c>
     </row>
     <row r="137">
@@ -3036,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>109.6024040006487</v>
+        <v>115.6999060792386</v>
       </c>
     </row>
     <row r="138">
@@ -3055,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>88.02934053106947</v>
+        <v>56.38132336807757</v>
       </c>
     </row>
     <row r="139">
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0.984946236558244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1219.660036644186</v>
+        <v>1214.07563996062</v>
       </c>
     </row>
     <row r="141">
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>2192.195278760313</v>
+        <v>2186.452952241839</v>
       </c>
     </row>
     <row r="142">
@@ -3131,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>1187.236938</v>
+        <v>1182.747523547619</v>
       </c>
     </row>
     <row r="143">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>1283.012986636014</v>
+        <v>1278.479507053022</v>
       </c>
     </row>
     <row r="144">
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>1568.463971377357</v>
+        <v>1564.701867848323</v>
       </c>
     </row>
     <row r="145">
@@ -3188,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>1301.662459951647</v>
+        <v>1295.648065564847</v>
       </c>
     </row>
     <row r="146">
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>1760.282060870557</v>
+        <v>1757.14157163199</v>
       </c>
     </row>
     <row r="147">
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>1449.06924886774</v>
+        <v>1478.004829282253</v>
       </c>
     </row>
     <row r="148">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>2360.996035422264</v>
+        <v>2211.119718434294</v>
       </c>
     </row>
     <row r="149">
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>885.3597321071165</v>
+        <v>884.2649130838645</v>
       </c>
     </row>
     <row r="150">
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>2534.720869446074</v>
+        <v>2497.271192605256</v>
       </c>
     </row>
     <row r="151">
@@ -3302,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>84.78463135678521</v>
+        <v>90.88213343537609</v>
       </c>
     </row>
     <row r="152">
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>102.458235690041</v>
+        <v>31.84784157737886</v>
       </c>
     </row>
     <row r="153">
@@ -3340,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>0.1376344086020254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>1195.17041070089</v>
+        <v>1189.408231007123</v>
       </c>
     </row>
     <row r="155">
@@ -3378,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>2167.142834724637</v>
+        <v>2161.295968182269</v>
       </c>
     </row>
     <row r="156">
@@ -3397,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>1157.506156333333</v>
+        <v>1154.617849184524</v>
       </c>
     </row>
     <row r="157">
@@ -3416,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>1253.89318129042</v>
+        <v>1250.797256423138</v>
       </c>
     </row>
     <row r="158">
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>1424.822890531502</v>
+        <v>1538.037804372</v>
       </c>
     </row>
     <row r="159">
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>1276.508649330663</v>
+        <v>1268.706773144831</v>
       </c>
     </row>
     <row r="160">
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>1730.248899801068</v>
+        <v>1730.867570279114</v>
       </c>
     </row>
     <row r="161">
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>1459.649641431122</v>
+        <v>1451.900359305447</v>
       </c>
     </row>
     <row r="162">
@@ -3511,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>2222.788548591058</v>
+        <v>2185.302043838034</v>
       </c>
     </row>
     <row r="163">
@@ -3530,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>859.3719142538439</v>
+        <v>859.1189498482281</v>
       </c>
     </row>
     <row r="164">
@@ -3549,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>2437.792595951792</v>
+        <v>2472.393453398391</v>
       </c>
     </row>
     <row r="165">
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>43.14678954773808</v>
+        <v>66.06436079151536</v>
       </c>
     </row>
     <row r="166">
@@ -3587,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>41.20464412115689</v>
+        <v>7.314359786678324</v>
       </c>
     </row>
     <row r="167">
@@ -3606,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>4.438709677418956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>1171.81571770256</v>
+        <v>1165.010752688172</v>
       </c>
     </row>
     <row r="169">
@@ -3644,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>2143.593153532452</v>
+        <v>2136.234190215888</v>
       </c>
     </row>
     <row r="170">
@@ -3663,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>1130.441929916667</v>
+        <v>1126.630601276785</v>
       </c>
     </row>
     <row r="171">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>1227.210930660535</v>
+        <v>1223.364837615424</v>
       </c>
     </row>
     <row r="172">
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>1511.866107875084</v>
+        <v>1511.10807669293</v>
       </c>
     </row>
     <row r="173">
@@ -3720,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>1249.622130771621</v>
+        <v>1242.049839234037</v>
       </c>
     </row>
     <row r="174">
@@ -3739,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>1705.006061312223</v>
+        <v>1704.46344146769</v>
       </c>
     </row>
     <row r="175">
@@ -3758,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>1433.339067983607</v>
+        <v>1425.890244167348</v>
       </c>
     </row>
     <row r="176">
@@ -3777,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>2161.707098259096</v>
+        <v>2159.612168198391</v>
       </c>
     </row>
     <row r="177">
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>828.9613459648826</v>
+        <v>833.9885123393869</v>
       </c>
     </row>
     <row r="178">
@@ -3815,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>2449.520652862168</v>
+        <v>2447.563366842218</v>
       </c>
     </row>
     <row r="179">
@@ -3834,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>18.32901690387826</v>
+        <v>41.24658814765462</v>
       </c>
     </row>
     <row r="180">
@@ -3853,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>16.67116233045817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -3872,7 +3872,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
     </row>
     <row r="182">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>1147.393696844463</v>
+        <v>1140.47311827957</v>
       </c>
     </row>
     <row r="183">
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>2118.346563738114</v>
+        <v>2111.122009023701</v>
       </c>
     </row>
     <row r="184">
@@ -3929,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>1103.081447437506</v>
+        <v>1098.815300638393</v>
       </c>
     </row>
     <row r="185">
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>1199.375109431423</v>
+        <v>1195.682923341203</v>
       </c>
     </row>
     <row r="186">
@@ -3967,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>1484.81396438984</v>
+        <v>1483.978424662186</v>
       </c>
     </row>
     <row r="187">
@@ -3986,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>1222.862614118231</v>
+        <v>1215.290322580647</v>
       </c>
     </row>
     <row r="188">
@@ -4005,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>1678.63754827668</v>
+        <v>1678.059312656264</v>
       </c>
     </row>
     <row r="189">
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>1407.257789731185</v>
+        <v>1399.757817201295</v>
       </c>
     </row>
     <row r="190">
@@ -4043,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>1781.472095085519</v>
+        <v>2133.873096972999</v>
       </c>
     </row>
     <row r="191">
@@ -4062,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>803.8169067081808</v>
+        <v>808.8763311472003</v>
       </c>
     </row>
     <row r="192">
@@ -4081,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>2424.769669718483</v>
+        <v>2422.758518732339</v>
       </c>
     </row>
     <row r="193">
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>16.42881550379116</v>
       </c>
     </row>
     <row r="194">
@@ -4157,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>1122.860215053764</v>
+        <v>1116.083945196425</v>
       </c>
     </row>
     <row r="197">
@@ -4176,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>2093.234382545926</v>
+        <v>2086.032229265206</v>
       </c>
     </row>
     <row r="198">
@@ -4195,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>1078.733528312495</v>
+        <v>1070.896831638393</v>
       </c>
     </row>
     <row r="199">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>1175.5</v>
+        <v>1168.5</v>
       </c>
     </row>
     <row r="200">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>1465.523022036514</v>
+        <v>1456.848772631439</v>
       </c>
     </row>
     <row r="201">
@@ -4252,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1195.264387787419</v>
+        <v>1188.530805927252</v>
       </c>
     </row>
     <row r="202">
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>1660.072129142674</v>
+        <v>1651.655183844839</v>
       </c>
     </row>
     <row r="203">
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>1380.451429713262</v>
+        <v>1373.695282708358</v>
       </c>
     </row>
     <row r="204">
@@ -4309,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>2119.705613398895</v>
+        <v>2108.003515337787</v>
       </c>
     </row>
     <row r="205">
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>775.4144029353474</v>
+        <v>783.7883435034009</v>
       </c>
     </row>
     <row r="206">
@@ -4347,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>2409.121195929257</v>
+        <v>2397.967627808908</v>
       </c>
     </row>
     <row r="207">
@@ -4423,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>1097.649313908226</v>
+        <v>1091.550463405728</v>
       </c>
     </row>
     <row r="211">
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>2067.020050816105</v>
+        <v>2060.920048073021</v>
       </c>
     </row>
     <row r="212">
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>1051.000000000025</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="213">
@@ -4480,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>1149.000000000528</v>
+        <v>1141.5</v>
       </c>
     </row>
     <row r="214">
@@ -4499,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>1438.393370005771</v>
+        <v>1429.719120600696</v>
       </c>
     </row>
     <row r="215">
@@ -4518,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>1169.121693810567</v>
+        <v>1162.032258064516</v>
       </c>
     </row>
     <row r="216">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>1633.935483870954</v>
+        <v>1625.25105503341</v>
       </c>
     </row>
     <row r="217">
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>1354.179217800967</v>
+        <v>1347.632748215423</v>
       </c>
     </row>
     <row r="218">
@@ -4575,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>2065.39414528517</v>
+        <v>2082.368359143828</v>
       </c>
     </row>
     <row r="219">
@@ -4594,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>750.3022217431617</v>
+        <v>758.6277752144415</v>
       </c>
     </row>
     <row r="220">
@@ -4613,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>2384.342738332903</v>
+        <v>2373.197744967079</v>
       </c>
     </row>
     <row r="221">
@@ -4689,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="E224" t="n">
-        <v>1074.385020465243</v>
+        <v>1067.83870967742</v>
       </c>
     </row>
     <row r="225">
@@ -4708,7 +4708,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>2041.907869623918</v>
+        <v>2035.807866880833</v>
       </c>
     </row>
     <row r="226">
@@ -4727,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>1025</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="227">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>1123.5</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="228">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="E228" t="n">
-        <v>1414.451612903226</v>
+        <v>1404.580645161291</v>
       </c>
     </row>
     <row r="229">
@@ -4784,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>1142.362177157175</v>
+        <v>1138.967741935484</v>
       </c>
     </row>
     <row r="230">
@@ -4803,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>1611</v>
+        <v>1600.83870967742</v>
       </c>
     </row>
     <row r="231">
@@ -4822,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>1328.326360727387</v>
+        <v>1325.16129032258</v>
       </c>
     </row>
     <row r="232">
@@ -4841,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>2069.092937372345</v>
+        <v>2056.772744082318</v>
       </c>
     </row>
     <row r="233">
@@ -4860,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>739.4516129032254</v>
+        <v>744.2903225806449</v>
       </c>
     </row>
     <row r="234">
@@ -4879,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>2360.423583200562</v>
+        <v>2348.161137696105</v>
       </c>
     </row>
     <row r="235">
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -4955,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>1049.701001040134</v>
+        <v>1052.408602150537</v>
       </c>
     </row>
     <row r="239">
@@ -4974,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>2016.616476962198</v>
+        <v>2010.695685688646</v>
       </c>
     </row>
     <row r="240">
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>1007.999999999999</v>
+        <v>1000.999999998863</v>
       </c>
     </row>
     <row r="241">
@@ -5012,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>1105.999999999999</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="242">
@@ -5031,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>1393.548387096775</v>
+        <v>1383.677419354839</v>
       </c>
     </row>
     <row r="243">
@@ -5050,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>1129.741935483871</v>
+        <v>1127.225806451613</v>
       </c>
     </row>
     <row r="244">
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>1590.387096774193</v>
+        <v>1580.516129032258</v>
       </c>
     </row>
     <row r="245">
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>1315.935483870968</v>
+        <v>1313.419354839187</v>
       </c>
     </row>
     <row r="246">
@@ -5107,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="E246" t="n">
-        <v>2043.338866026908</v>
+        <v>2030.796944689103</v>
       </c>
     </row>
     <row r="247">
@@ -5126,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>749.7096774193551</v>
+        <v>754.3548387097881</v>
       </c>
     </row>
     <row r="248">
@@ -5145,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>2335.605810556699</v>
+        <v>2323.494496467185</v>
       </c>
     </row>
     <row r="249">
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>1061.892473118279</v>
+        <v>1065.806451612903</v>
       </c>
     </row>
     <row r="253">
@@ -5240,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>1991.504295770012</v>
+        <v>1985.44909589431</v>
       </c>
     </row>
     <row r="254">
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>989.9999999999991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="255">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>1088.5</v>
+        <v>1081.499999999999</v>
       </c>
     </row>
     <row r="256">
@@ -5297,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>1373.225806451613</v>
+        <v>1362.774193548386</v>
       </c>
     </row>
     <row r="257">
@@ -5316,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>1118</v>
+        <v>1115.483870967741</v>
       </c>
     </row>
     <row r="258">
@@ -5335,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="E258" t="n">
-        <v>1570.354838709678</v>
+        <v>1560.483870967742</v>
       </c>
     </row>
     <row r="259">
@@ -5354,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>1304.403225806453</v>
+        <v>1301.887096774193</v>
       </c>
     </row>
     <row r="260">
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>2017.703055340318</v>
+        <v>2005.063080779666</v>
       </c>
     </row>
     <row r="261">
@@ -5392,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>759.8709677419356</v>
+        <v>764.6129032258059</v>
       </c>
     </row>
     <row r="262">
@@ -5411,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="E262" t="n">
-        <v>2310.788037912838</v>
+        <v>2298.676723823322</v>
       </c>
     </row>
     <row r="263">
@@ -5487,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="E266" t="n">
-        <v>1075.591397849463</v>
+        <v>1079.505376344086</v>
       </c>
     </row>
     <row r="267">
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>1966.392114577827</v>
+        <v>1960.336914702121</v>
       </c>
     </row>
     <row r="268">
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>974</v>
+        <v>967</v>
       </c>
     </row>
     <row r="269">
@@ -5544,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>1071.5</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="270">
@@ -5563,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>1352.322580645162</v>
+        <v>1341.870967741936</v>
       </c>
     </row>
     <row r="271">
@@ -5582,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>1107.096774193548</v>
+        <v>1108.354838709676</v>
       </c>
     </row>
     <row r="272">
@@ -5601,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>1550.032258064516</v>
+        <v>1539.870967741936</v>
       </c>
     </row>
     <row r="273">
@@ -5620,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>1293.919354838709</v>
+        <v>1294.967741935484</v>
       </c>
     </row>
     <row r="274">
@@ -5639,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>1991.838453800419</v>
+        <v>1979.571152354102</v>
       </c>
     </row>
     <row r="275">
@@ -5658,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>769.9354838709678</v>
+        <v>774.5806451612907</v>
       </c>
     </row>
     <row r="276">
@@ -5677,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>2285.84929752704</v>
+        <v>2273.85895117946</v>
       </c>
     </row>
     <row r="277">
@@ -5753,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="E280" t="n">
-        <v>1088.236559139785</v>
+        <v>1089.290322580646</v>
       </c>
     </row>
     <row r="281">
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>1943.279569892473</v>
+        <v>1945.16129032258</v>
       </c>
     </row>
     <row r="282">
@@ -5791,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>962</v>
+        <v>955.9999999999991</v>
       </c>
     </row>
     <row r="283">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>1060.5</v>
+        <v>1055.5</v>
       </c>
     </row>
     <row r="284">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E284" t="n">
-        <v>1331.419354838709</v>
+        <v>1320.967741935484</v>
       </c>
     </row>
     <row r="285">
@@ -5848,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>1109.612903225807</v>
+        <v>1110.870967741935</v>
       </c>
     </row>
     <row r="286">
@@ -5867,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>1529.709677419355</v>
+        <v>1519.83870967742</v>
       </c>
     </row>
     <row r="287">
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>1296.435483870968</v>
+        <v>1297.693548387097</v>
       </c>
     </row>
     <row r="288">
@@ -5905,7 +5905,7 @@
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>1966.268011929061</v>
+        <v>1953.675998122086</v>
       </c>
     </row>
     <row r="289">
@@ -5924,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>779.0322580645161</v>
+        <v>783.4838709677406</v>
       </c>
     </row>
     <row r="290">
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="E290" t="n">
-        <v>2260.899321234076</v>
+        <v>2249.041178535597</v>
       </c>
     </row>
     <row r="291">
@@ -6019,7 +6019,7 @@
         <v>1</v>
       </c>
       <c r="E294" t="n">
-        <v>1089.89247311828</v>
+        <v>1090.645161290322</v>
       </c>
     </row>
     <row r="295">
@@ -6038,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>1946.236559139784</v>
+        <v>1947.580645161292</v>
       </c>
     </row>
     <row r="296">
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="E296" t="n">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="297">
@@ -6076,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>1049</v>
+        <v>1043.5</v>
       </c>
     </row>
     <row r="298">
@@ -6095,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="E298" t="n">
-        <v>1310.516129032259</v>
+        <v>1300.064516129032</v>
       </c>
     </row>
     <row r="299">
@@ -6114,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>1112.129032258064</v>
+        <v>1113.387096774195</v>
       </c>
     </row>
     <row r="300">
@@ -6133,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>1509.677419354839</v>
+        <v>1499.516129032258</v>
       </c>
     </row>
     <row r="301">
@@ -6152,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>1298.741935483871</v>
+        <v>1300.209677419355</v>
       </c>
     </row>
     <row r="302">
@@ -6171,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="E302" t="n">
-        <v>1940.309293603873</v>
+        <v>1927.942134212649</v>
       </c>
     </row>
     <row r="303">
@@ -6190,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>788.1290322580644</v>
+        <v>792.5806451612907</v>
       </c>
     </row>
     <row r="304">
@@ -6209,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="E304" t="n">
-        <v>2236.430675869669</v>
+        <v>2224.223405891737</v>
       </c>
     </row>
     <row r="305">
@@ -6285,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="E308" t="n">
-        <v>1091.698924731182</v>
+        <v>1092.301075268817</v>
       </c>
     </row>
     <row r="309">
@@ -6304,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>1949.462365591398</v>
+        <v>1950.537634408603</v>
       </c>
     </row>
     <row r="310">
@@ -6323,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="E310" t="n">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="311">
@@ -6342,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>1038</v>
+        <v>1032.499999999999</v>
       </c>
     </row>
     <row r="312">
@@ -6361,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>1289.612903225807</v>
+        <v>1279.16129032258</v>
       </c>
     </row>
     <row r="313">
@@ -6380,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>1114.645161290323</v>
+        <v>1115.903225806452</v>
       </c>
     </row>
     <row r="314">
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="E314" t="n">
-        <v>1488.774193548387</v>
+        <v>1479.193548387097</v>
       </c>
     </row>
     <row r="315">
@@ -6418,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>1301.258064516129</v>
+        <v>1302.725806451613</v>
       </c>
     </row>
     <row r="316">
@@ -6437,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="E316" t="n">
-        <v>1914.912711318066</v>
+        <v>1902.68074452568</v>
       </c>
     </row>
     <row r="317">
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>797.2258064516127</v>
+        <v>801.6774193548381</v>
       </c>
     </row>
     <row r="318">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E318" t="n">
-        <v>2211.311259614202</v>
+        <v>2199.405633247873</v>
       </c>
     </row>
     <row r="319">
@@ -6551,7 +6551,7 @@
         <v>1</v>
       </c>
       <c r="E322" t="n">
-        <v>1093.204301075269</v>
+        <v>1093.956989247312</v>
       </c>
     </row>
     <row r="323">
@@ -6570,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>1952.150537634408</v>
+        <v>1953.494623655914</v>
       </c>
     </row>
     <row r="324">
@@ -6589,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="E324" t="n">
-        <v>927</v>
+        <v>921.9999999999991</v>
       </c>
     </row>
     <row r="325">
@@ -6608,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>1026.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="326">
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="E326" t="n">
-        <v>1268.129032258064</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="327">
@@ -6646,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>1117.580645161291</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="328">
@@ -6665,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="E328" t="n">
-        <v>1468.16129032258</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="329">
@@ -6684,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>1303.983870967742</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="330">
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="E330" t="n">
-        <v>1889.17884740863</v>
+        <v>1876.946880616244</v>
       </c>
     </row>
     <row r="331">
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>806.5161290322585</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="332">
@@ -6741,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="E332" t="n">
-        <v>2187.096774193547</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="333">
@@ -6817,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="E336" t="n">
-        <v>1094.709677419355</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="337">
@@ -6836,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>1954.83870967742</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="338">
@@ -6874,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="340">
@@ -6893,7 +6893,7 @@
         <v>1</v>
       </c>
       <c r="E340" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="341">
@@ -6931,7 +6931,7 @@
         <v>1</v>
       </c>
       <c r="E342" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="343">
@@ -6950,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="344">
@@ -7083,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="E350" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="351">
@@ -7102,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="352">
@@ -7159,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="E354" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="355">
@@ -7178,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="356">
@@ -7254,7 +7254,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="360">
@@ -7273,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="E360" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="361">
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="E364" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="365">
@@ -7368,7 +7368,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="366">
@@ -7406,7 +7406,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="368">
@@ -7425,7 +7425,7 @@
         <v>1</v>
       </c>
       <c r="E368" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="369">
@@ -7463,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="E370" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="371">
@@ -7482,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="372">
@@ -7615,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="E378" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="379">
@@ -7634,7 +7634,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="380">
@@ -7691,7 +7691,7 @@
         <v>1</v>
       </c>
       <c r="E382" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="383">
@@ -7710,7 +7710,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="384">
@@ -7786,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="388">
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="E388" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="389">
@@ -7881,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="393">
@@ -7900,7 +7900,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="394">
@@ -8166,7 +8166,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="408">
@@ -8223,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="E410" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="411">
@@ -8242,7 +8242,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="412">
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="416">
@@ -8337,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="E416" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="417">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E420" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="421">
@@ -8432,7 +8432,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="422">
@@ -8698,7 +8698,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="436">
@@ -8755,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="E438" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="439">
@@ -8774,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="440">
@@ -8850,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="444">
@@ -8869,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="E444" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="445">
@@ -8945,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="E448" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="449">
@@ -8964,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="450">
@@ -9230,7 +9230,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="464">
@@ -9287,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="E466" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="467">
@@ -9306,7 +9306,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="468">
@@ -9382,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="472">
@@ -9401,7 +9401,7 @@
         <v>1</v>
       </c>
       <c r="E472" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="473">
@@ -9477,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="E476" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="477">
@@ -9496,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="478">
@@ -9762,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="492">
@@ -9819,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="E494" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="495">
@@ -9838,7 +9838,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="496">
@@ -9914,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="500">
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="E500" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="501">
@@ -10009,7 +10009,7 @@
         <v>1</v>
       </c>
       <c r="E504" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="505">
@@ -10028,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="506">
@@ -10294,7 +10294,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="520">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E522" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="523">
@@ -10370,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="524">
@@ -10446,7 +10446,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="528">
@@ -10465,7 +10465,7 @@
         <v>1</v>
       </c>
       <c r="E528" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="529">
@@ -10541,7 +10541,7 @@
         <v>1</v>
       </c>
       <c r="E532" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="533">
@@ -10560,7 +10560,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="534">
@@ -10826,7 +10826,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="548">
@@ -10883,7 +10883,7 @@
         <v>1</v>
       </c>
       <c r="E550" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="551">
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="552">
@@ -10978,7 +10978,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="556">
@@ -10997,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="E556" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="557">
@@ -11073,7 +11073,7 @@
         <v>1</v>
       </c>
       <c r="E560" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="561">
@@ -11092,7 +11092,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="562">
@@ -11358,7 +11358,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="576">
@@ -11415,7 +11415,7 @@
         <v>1</v>
       </c>
       <c r="E578" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="579">
@@ -11434,7 +11434,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="580">
@@ -11510,7 +11510,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="584">
@@ -11529,7 +11529,7 @@
         <v>1</v>
       </c>
       <c r="E584" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="585">
@@ -11605,7 +11605,7 @@
         <v>1</v>
       </c>
       <c r="E588" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="589">
@@ -11624,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="590">
@@ -11890,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="604">
@@ -11947,7 +11947,7 @@
         <v>1</v>
       </c>
       <c r="E606" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="607">
@@ -11966,7 +11966,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="608">
@@ -12042,7 +12042,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="612">
@@ -12061,7 +12061,7 @@
         <v>1</v>
       </c>
       <c r="E612" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="613">
@@ -12137,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="E616" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="617">
@@ -12156,7 +12156,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="618">
@@ -12422,7 +12422,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="632">
@@ -12479,7 +12479,7 @@
         <v>1</v>
       </c>
       <c r="E634" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="635">
@@ -12498,7 +12498,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="636">
@@ -12574,7 +12574,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="640">
@@ -12593,7 +12593,7 @@
         <v>1</v>
       </c>
       <c r="E640" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="641">
@@ -12669,7 +12669,7 @@
         <v>1</v>
       </c>
       <c r="E644" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="645">
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="646">
@@ -12954,7 +12954,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="660">
@@ -13011,7 +13011,7 @@
         <v>1</v>
       </c>
       <c r="E662" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="663">
@@ -13030,7 +13030,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="664">
@@ -13106,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="668">
@@ -13125,7 +13125,7 @@
         <v>1</v>
       </c>
       <c r="E668" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="669">
@@ -13201,7 +13201,7 @@
         <v>1</v>
       </c>
       <c r="E672" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="673">
@@ -13220,7 +13220,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="674">
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="688">
@@ -13543,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="E690" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="691">
@@ -13562,7 +13562,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="692">
@@ -13638,7 +13638,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="696">
@@ -13657,7 +13657,7 @@
         <v>1</v>
       </c>
       <c r="E696" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="697">
@@ -13733,7 +13733,7 @@
         <v>1</v>
       </c>
       <c r="E700" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="701">
@@ -13752,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="702">
@@ -14018,7 +14018,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="716">
@@ -14075,7 +14075,7 @@
         <v>1</v>
       </c>
       <c r="E718" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="719">
@@ -14094,7 +14094,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="720">
@@ -14170,7 +14170,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="724">
@@ -14189,7 +14189,7 @@
         <v>1</v>
       </c>
       <c r="E724" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="725">
@@ -14265,7 +14265,7 @@
         <v>1</v>
       </c>
       <c r="E728" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="729">
@@ -14284,7 +14284,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="730">
@@ -14550,7 +14550,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="744">
@@ -14607,7 +14607,7 @@
         <v>1</v>
       </c>
       <c r="E746" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="747">
@@ -14626,7 +14626,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="748">
@@ -14702,7 +14702,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="752">
@@ -14721,7 +14721,7 @@
         <v>1</v>
       </c>
       <c r="E752" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="753">
@@ -14797,7 +14797,7 @@
         <v>1</v>
       </c>
       <c r="E756" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="757">
@@ -14816,7 +14816,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="758">
@@ -15082,7 +15082,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="772">
@@ -15139,7 +15139,7 @@
         <v>1</v>
       </c>
       <c r="E774" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="775">
@@ -15158,7 +15158,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="776">
@@ -15234,7 +15234,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="780">
@@ -15253,7 +15253,7 @@
         <v>1</v>
       </c>
       <c r="E780" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="781">
@@ -15329,7 +15329,7 @@
         <v>1</v>
       </c>
       <c r="E784" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="785">
@@ -15348,7 +15348,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="786">
@@ -15614,7 +15614,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="800">
@@ -15671,7 +15671,7 @@
         <v>1</v>
       </c>
       <c r="E802" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="803">
@@ -15690,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="804">
@@ -15766,7 +15766,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="808">
@@ -15785,7 +15785,7 @@
         <v>1</v>
       </c>
       <c r="E808" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="809">
@@ -15861,7 +15861,7 @@
         <v>1</v>
       </c>
       <c r="E812" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="813">
@@ -15880,7 +15880,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="814">
@@ -16146,7 +16146,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="828">
@@ -16203,7 +16203,7 @@
         <v>1</v>
       </c>
       <c r="E830" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="831">
@@ -16222,7 +16222,7 @@
         <v>1</v>
       </c>
       <c r="E831" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="832">
@@ -16298,7 +16298,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="836">
@@ -16317,7 +16317,7 @@
         <v>1</v>
       </c>
       <c r="E836" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="837">
@@ -16393,7 +16393,7 @@
         <v>1</v>
       </c>
       <c r="E840" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="841">
@@ -16412,7 +16412,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="842">
@@ -16678,7 +16678,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="856">
@@ -16735,7 +16735,7 @@
         <v>1</v>
       </c>
       <c r="E858" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="859">
@@ -16754,7 +16754,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="860">
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="864">
@@ -16849,7 +16849,7 @@
         <v>1</v>
       </c>
       <c r="E864" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="865">
@@ -16925,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="E868" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="869">
@@ -16944,7 +16944,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="870">
@@ -17210,7 +17210,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="884">
@@ -17267,7 +17267,7 @@
         <v>1</v>
       </c>
       <c r="E886" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="887">
@@ -17286,7 +17286,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="888">
@@ -17362,7 +17362,7 @@
         <v>1</v>
       </c>
       <c r="E891" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="892">
@@ -17381,7 +17381,7 @@
         <v>1</v>
       </c>
       <c r="E892" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="893">
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="E896" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="897">
@@ -17476,7 +17476,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="898">
@@ -17742,7 +17742,7 @@
         <v>1</v>
       </c>
       <c r="E911" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="912">
@@ -17799,7 +17799,7 @@
         <v>1</v>
       </c>
       <c r="E914" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="915">
@@ -17818,7 +17818,7 @@
         <v>1</v>
       </c>
       <c r="E915" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="916">
@@ -17894,7 +17894,7 @@
         <v>1</v>
       </c>
       <c r="E919" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="920">
@@ -17913,7 +17913,7 @@
         <v>1</v>
       </c>
       <c r="E920" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="921">
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="E924" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="925">
@@ -18008,7 +18008,7 @@
         <v>1</v>
       </c>
       <c r="E925" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="926">
@@ -18274,7 +18274,7 @@
         <v>1</v>
       </c>
       <c r="E939" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="940">
@@ -18331,7 +18331,7 @@
         <v>1</v>
       </c>
       <c r="E942" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="943">
@@ -18350,7 +18350,7 @@
         <v>1</v>
       </c>
       <c r="E943" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="944">
@@ -18426,7 +18426,7 @@
         <v>1</v>
       </c>
       <c r="E947" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="948">
@@ -18445,7 +18445,7 @@
         <v>1</v>
       </c>
       <c r="E948" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="949">
@@ -18521,7 +18521,7 @@
         <v>1</v>
       </c>
       <c r="E952" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="953">
@@ -18540,7 +18540,7 @@
         <v>1</v>
       </c>
       <c r="E953" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="954">
@@ -18806,7 +18806,7 @@
         <v>1</v>
       </c>
       <c r="E967" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="968">
@@ -18863,7 +18863,7 @@
         <v>1</v>
       </c>
       <c r="E970" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="971">
@@ -18882,7 +18882,7 @@
         <v>1</v>
       </c>
       <c r="E971" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="972">
@@ -18958,7 +18958,7 @@
         <v>1</v>
       </c>
       <c r="E975" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="976">
@@ -18977,7 +18977,7 @@
         <v>1</v>
       </c>
       <c r="E976" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="977">
@@ -19053,7 +19053,7 @@
         <v>1</v>
       </c>
       <c r="E980" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="981">
@@ -19072,7 +19072,7 @@
         <v>1</v>
       </c>
       <c r="E981" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="982">
@@ -19338,7 +19338,7 @@
         <v>1</v>
       </c>
       <c r="E995" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="996">
@@ -19395,7 +19395,7 @@
         <v>1</v>
       </c>
       <c r="E998" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="999">
@@ -19414,7 +19414,7 @@
         <v>1</v>
       </c>
       <c r="E999" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1000">
@@ -19490,7 +19490,7 @@
         <v>1</v>
       </c>
       <c r="E1003" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1004">
@@ -19509,7 +19509,7 @@
         <v>1</v>
       </c>
       <c r="E1004" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1005">
@@ -19585,7 +19585,7 @@
         <v>1</v>
       </c>
       <c r="E1008" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1009">
@@ -19604,7 +19604,7 @@
         <v>1</v>
       </c>
       <c r="E1009" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1010">
@@ -19870,7 +19870,7 @@
         <v>1</v>
       </c>
       <c r="E1023" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1024">
@@ -19927,7 +19927,7 @@
         <v>1</v>
       </c>
       <c r="E1026" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1027">
@@ -19946,7 +19946,7 @@
         <v>1</v>
       </c>
       <c r="E1027" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1028">
@@ -20022,7 +20022,7 @@
         <v>1</v>
       </c>
       <c r="E1031" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1032">
@@ -20041,7 +20041,7 @@
         <v>1</v>
       </c>
       <c r="E1032" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1033">
@@ -20117,7 +20117,7 @@
         <v>1</v>
       </c>
       <c r="E1036" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1037">
@@ -20136,7 +20136,7 @@
         <v>1</v>
       </c>
       <c r="E1037" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1038">
@@ -20402,7 +20402,7 @@
         <v>1</v>
       </c>
       <c r="E1051" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1052">
@@ -20459,7 +20459,7 @@
         <v>1</v>
       </c>
       <c r="E1054" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1055">
@@ -20478,7 +20478,7 @@
         <v>1</v>
       </c>
       <c r="E1055" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1056">
@@ -20554,7 +20554,7 @@
         <v>1</v>
       </c>
       <c r="E1059" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1060">
@@ -20573,7 +20573,7 @@
         <v>1</v>
       </c>
       <c r="E1060" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1061">
@@ -20649,7 +20649,7 @@
         <v>1</v>
       </c>
       <c r="E1064" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1065">
@@ -20668,7 +20668,7 @@
         <v>1</v>
       </c>
       <c r="E1065" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1066">
@@ -20934,7 +20934,7 @@
         <v>1</v>
       </c>
       <c r="E1079" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1080">
@@ -20991,7 +20991,7 @@
         <v>1</v>
       </c>
       <c r="E1082" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1083">
@@ -21010,7 +21010,7 @@
         <v>1</v>
       </c>
       <c r="E1083" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1084">
@@ -21086,7 +21086,7 @@
         <v>1</v>
       </c>
       <c r="E1087" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1088">
@@ -21105,7 +21105,7 @@
         <v>1</v>
       </c>
       <c r="E1088" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1089">
@@ -21181,7 +21181,7 @@
         <v>1</v>
       </c>
       <c r="E1092" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1093">
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="E1093" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1094">
@@ -21466,7 +21466,7 @@
         <v>1</v>
       </c>
       <c r="E1107" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1108">
@@ -21523,7 +21523,7 @@
         <v>1</v>
       </c>
       <c r="E1110" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1111">
@@ -21542,7 +21542,7 @@
         <v>1</v>
       </c>
       <c r="E1111" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1112">
@@ -21618,7 +21618,7 @@
         <v>1</v>
       </c>
       <c r="E1115" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1116">
@@ -21637,7 +21637,7 @@
         <v>1</v>
       </c>
       <c r="E1116" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1117">
@@ -21713,7 +21713,7 @@
         <v>1</v>
       </c>
       <c r="E1120" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1121">
@@ -21732,7 +21732,7 @@
         <v>1</v>
       </c>
       <c r="E1121" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1122">
@@ -21998,7 +21998,7 @@
         <v>1</v>
       </c>
       <c r="E1135" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1136">
@@ -22055,7 +22055,7 @@
         <v>1</v>
       </c>
       <c r="E1138" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1139">
@@ -22074,7 +22074,7 @@
         <v>1</v>
       </c>
       <c r="E1139" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1140">
@@ -22150,7 +22150,7 @@
         <v>1</v>
       </c>
       <c r="E1143" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1144">
@@ -22169,7 +22169,7 @@
         <v>1</v>
       </c>
       <c r="E1144" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1145">
@@ -22245,7 +22245,7 @@
         <v>1</v>
       </c>
       <c r="E1148" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1149">
@@ -22264,7 +22264,7 @@
         <v>1</v>
       </c>
       <c r="E1149" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1150">
@@ -22530,7 +22530,7 @@
         <v>1</v>
       </c>
       <c r="E1163" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1164">
@@ -22587,7 +22587,7 @@
         <v>1</v>
       </c>
       <c r="E1166" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1167">
@@ -22606,7 +22606,7 @@
         <v>1</v>
       </c>
       <c r="E1167" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1168">
@@ -22682,7 +22682,7 @@
         <v>1</v>
       </c>
       <c r="E1171" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1172">
@@ -22701,7 +22701,7 @@
         <v>1</v>
       </c>
       <c r="E1172" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1173">
@@ -22777,7 +22777,7 @@
         <v>1</v>
       </c>
       <c r="E1176" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1177">
@@ -22796,7 +22796,7 @@
         <v>1</v>
       </c>
       <c r="E1177" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1178">
@@ -23062,7 +23062,7 @@
         <v>1</v>
       </c>
       <c r="E1191" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1192">
@@ -23119,7 +23119,7 @@
         <v>1</v>
       </c>
       <c r="E1194" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1195">
@@ -23138,7 +23138,7 @@
         <v>1</v>
       </c>
       <c r="E1195" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1196">
@@ -23214,7 +23214,7 @@
         <v>1</v>
       </c>
       <c r="E1199" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1200">
@@ -23233,7 +23233,7 @@
         <v>1</v>
       </c>
       <c r="E1200" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1201">
@@ -23309,7 +23309,7 @@
         <v>1</v>
       </c>
       <c r="E1204" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1205">
@@ -23328,7 +23328,7 @@
         <v>1</v>
       </c>
       <c r="E1205" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1206">
@@ -23594,7 +23594,7 @@
         <v>1</v>
       </c>
       <c r="E1219" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1220">
@@ -23651,7 +23651,7 @@
         <v>1</v>
       </c>
       <c r="E1222" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1223">
@@ -23670,7 +23670,7 @@
         <v>1</v>
       </c>
       <c r="E1223" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1224">
@@ -23746,7 +23746,7 @@
         <v>1</v>
       </c>
       <c r="E1227" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1228">
@@ -23765,7 +23765,7 @@
         <v>1</v>
       </c>
       <c r="E1228" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1229">
@@ -23841,7 +23841,7 @@
         <v>1</v>
       </c>
       <c r="E1232" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1233">
@@ -23860,7 +23860,7 @@
         <v>1</v>
       </c>
       <c r="E1233" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1234">
@@ -24126,7 +24126,7 @@
         <v>1</v>
       </c>
       <c r="E1247" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1248">
@@ -24183,7 +24183,7 @@
         <v>1</v>
       </c>
       <c r="E1250" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1251">
@@ -24202,7 +24202,7 @@
         <v>1</v>
       </c>
       <c r="E1251" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1252">
@@ -24278,7 +24278,7 @@
         <v>1</v>
       </c>
       <c r="E1255" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1256">
@@ -24297,7 +24297,7 @@
         <v>1</v>
       </c>
       <c r="E1256" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1257">
@@ -24373,7 +24373,7 @@
         <v>1</v>
       </c>
       <c r="E1260" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1261">
@@ -24392,7 +24392,7 @@
         <v>1</v>
       </c>
       <c r="E1261" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1262">
@@ -24658,7 +24658,7 @@
         <v>1</v>
       </c>
       <c r="E1275" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1276">
@@ -24715,7 +24715,7 @@
         <v>1</v>
       </c>
       <c r="E1278" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1279">
@@ -24734,7 +24734,7 @@
         <v>1</v>
       </c>
       <c r="E1279" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1280">
@@ -24810,7 +24810,7 @@
         <v>1</v>
       </c>
       <c r="E1283" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1284">
@@ -24829,7 +24829,7 @@
         <v>1</v>
       </c>
       <c r="E1284" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1285">
@@ -24905,7 +24905,7 @@
         <v>1</v>
       </c>
       <c r="E1288" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1289">
@@ -24924,7 +24924,7 @@
         <v>1</v>
       </c>
       <c r="E1289" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1290">
@@ -25190,7 +25190,7 @@
         <v>1</v>
       </c>
       <c r="E1303" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1304">
@@ -25247,7 +25247,7 @@
         <v>1</v>
       </c>
       <c r="E1306" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1307">
@@ -25266,7 +25266,7 @@
         <v>1</v>
       </c>
       <c r="E1307" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1308">
@@ -25342,7 +25342,7 @@
         <v>1</v>
       </c>
       <c r="E1311" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1312">
@@ -25361,7 +25361,7 @@
         <v>1</v>
       </c>
       <c r="E1312" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1313">
@@ -25437,7 +25437,7 @@
         <v>1</v>
       </c>
       <c r="E1316" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1317">
@@ -25456,7 +25456,7 @@
         <v>1</v>
       </c>
       <c r="E1317" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1318">
@@ -25722,7 +25722,7 @@
         <v>1</v>
       </c>
       <c r="E1331" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1332">
@@ -25779,7 +25779,7 @@
         <v>1</v>
       </c>
       <c r="E1334" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1335">
@@ -25798,7 +25798,7 @@
         <v>1</v>
       </c>
       <c r="E1335" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1336">
@@ -25874,7 +25874,7 @@
         <v>1</v>
       </c>
       <c r="E1339" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1340">
@@ -25893,7 +25893,7 @@
         <v>1</v>
       </c>
       <c r="E1340" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1341">
@@ -25969,7 +25969,7 @@
         <v>1</v>
       </c>
       <c r="E1344" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1345">
@@ -25988,7 +25988,7 @@
         <v>1</v>
       </c>
       <c r="E1345" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1346">
@@ -26254,7 +26254,7 @@
         <v>1</v>
       </c>
       <c r="E1359" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1360">
@@ -26311,7 +26311,7 @@
         <v>1</v>
       </c>
       <c r="E1362" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1363">
@@ -26330,7 +26330,7 @@
         <v>1</v>
       </c>
       <c r="E1363" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1364">
@@ -26406,7 +26406,7 @@
         <v>1</v>
       </c>
       <c r="E1367" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1368">
@@ -26425,7 +26425,7 @@
         <v>1</v>
       </c>
       <c r="E1368" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1369">
@@ -26501,7 +26501,7 @@
         <v>1</v>
       </c>
       <c r="E1372" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1373">
@@ -26520,7 +26520,7 @@
         <v>1</v>
       </c>
       <c r="E1373" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1374">
@@ -26786,7 +26786,7 @@
         <v>1</v>
       </c>
       <c r="E1387" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1388">
@@ -26843,7 +26843,7 @@
         <v>1</v>
       </c>
       <c r="E1390" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1391">
@@ -26862,7 +26862,7 @@
         <v>1</v>
       </c>
       <c r="E1391" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1392">
@@ -26938,7 +26938,7 @@
         <v>1</v>
       </c>
       <c r="E1395" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1396">
@@ -26957,7 +26957,7 @@
         <v>1</v>
       </c>
       <c r="E1396" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1397">
@@ -27033,7 +27033,7 @@
         <v>1</v>
       </c>
       <c r="E1400" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1401">
@@ -27052,7 +27052,7 @@
         <v>1</v>
       </c>
       <c r="E1401" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1402">
@@ -27318,7 +27318,7 @@
         <v>1</v>
       </c>
       <c r="E1415" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1416">
@@ -27375,7 +27375,7 @@
         <v>1</v>
       </c>
       <c r="E1418" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1419">
@@ -27394,7 +27394,7 @@
         <v>1</v>
       </c>
       <c r="E1419" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1420">
@@ -27470,7 +27470,7 @@
         <v>1</v>
       </c>
       <c r="E1423" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1424">
@@ -27489,7 +27489,7 @@
         <v>1</v>
       </c>
       <c r="E1424" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1425">
@@ -27565,7 +27565,7 @@
         <v>1</v>
       </c>
       <c r="E1428" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1429">
@@ -27584,7 +27584,7 @@
         <v>1</v>
       </c>
       <c r="E1429" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1430">
@@ -27850,7 +27850,7 @@
         <v>1</v>
       </c>
       <c r="E1443" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1444">
@@ -27907,7 +27907,7 @@
         <v>1</v>
       </c>
       <c r="E1446" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1447">
@@ -27926,7 +27926,7 @@
         <v>1</v>
       </c>
       <c r="E1447" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1448">
@@ -28002,7 +28002,7 @@
         <v>1</v>
       </c>
       <c r="E1451" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1452">
@@ -28021,7 +28021,7 @@
         <v>1</v>
       </c>
       <c r="E1452" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1453">
@@ -28097,7 +28097,7 @@
         <v>1</v>
       </c>
       <c r="E1456" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1457">
@@ -28116,7 +28116,7 @@
         <v>1</v>
       </c>
       <c r="E1457" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1458">
@@ -28382,7 +28382,7 @@
         <v>1</v>
       </c>
       <c r="E1471" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1472">
@@ -28439,7 +28439,7 @@
         <v>1</v>
       </c>
       <c r="E1474" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1475">
@@ -28458,7 +28458,7 @@
         <v>1</v>
       </c>
       <c r="E1475" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1476">
@@ -28534,7 +28534,7 @@
         <v>1</v>
       </c>
       <c r="E1479" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1480">
@@ -28553,7 +28553,7 @@
         <v>1</v>
       </c>
       <c r="E1480" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1481">
@@ -28629,7 +28629,7 @@
         <v>1</v>
       </c>
       <c r="E1484" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1485">
@@ -28648,7 +28648,7 @@
         <v>1</v>
       </c>
       <c r="E1485" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1486">
@@ -28914,7 +28914,7 @@
         <v>1</v>
       </c>
       <c r="E1499" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1500">
@@ -28971,7 +28971,7 @@
         <v>1</v>
       </c>
       <c r="E1502" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1503">
@@ -28990,7 +28990,7 @@
         <v>1</v>
       </c>
       <c r="E1503" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1504">
@@ -29066,7 +29066,7 @@
         <v>1</v>
       </c>
       <c r="E1507" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1508">
@@ -29085,7 +29085,7 @@
         <v>1</v>
       </c>
       <c r="E1508" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1509">
@@ -29161,7 +29161,7 @@
         <v>1</v>
       </c>
       <c r="E1512" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1513">
@@ -29180,7 +29180,7 @@
         <v>1</v>
       </c>
       <c r="E1513" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1514">
@@ -29446,7 +29446,7 @@
         <v>1</v>
       </c>
       <c r="E1527" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1528">
@@ -29503,7 +29503,7 @@
         <v>1</v>
       </c>
       <c r="E1530" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1531">
@@ -29522,7 +29522,7 @@
         <v>1</v>
       </c>
       <c r="E1531" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1532">
@@ -29598,7 +29598,7 @@
         <v>1</v>
       </c>
       <c r="E1535" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1536">
@@ -29617,7 +29617,7 @@
         <v>1</v>
       </c>
       <c r="E1536" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1537">
@@ -29693,7 +29693,7 @@
         <v>1</v>
       </c>
       <c r="E1540" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1541">
@@ -29712,7 +29712,7 @@
         <v>1</v>
       </c>
       <c r="E1541" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1542">
@@ -29978,7 +29978,7 @@
         <v>1</v>
       </c>
       <c r="E1555" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1556">
@@ -30035,7 +30035,7 @@
         <v>1</v>
       </c>
       <c r="E1558" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1559">
@@ -30054,7 +30054,7 @@
         <v>1</v>
       </c>
       <c r="E1559" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1560">
@@ -30130,7 +30130,7 @@
         <v>1</v>
       </c>
       <c r="E1563" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1564">
@@ -30149,7 +30149,7 @@
         <v>1</v>
       </c>
       <c r="E1564" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1565">
@@ -30225,7 +30225,7 @@
         <v>1</v>
       </c>
       <c r="E1568" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1569">
@@ -30244,7 +30244,7 @@
         <v>1</v>
       </c>
       <c r="E1569" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1570">
@@ -30510,7 +30510,7 @@
         <v>1</v>
       </c>
       <c r="E1583" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1584">
@@ -30567,7 +30567,7 @@
         <v>1</v>
       </c>
       <c r="E1586" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1587">
@@ -30586,7 +30586,7 @@
         <v>1</v>
       </c>
       <c r="E1587" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1588">
@@ -30662,7 +30662,7 @@
         <v>1</v>
       </c>
       <c r="E1591" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1592">
@@ -30681,7 +30681,7 @@
         <v>1</v>
       </c>
       <c r="E1592" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1593">
@@ -30757,7 +30757,7 @@
         <v>1</v>
       </c>
       <c r="E1596" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1597">
@@ -30776,7 +30776,7 @@
         <v>1</v>
       </c>
       <c r="E1597" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1598">
@@ -31042,7 +31042,7 @@
         <v>1</v>
       </c>
       <c r="E1611" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1612">
@@ -31099,7 +31099,7 @@
         <v>1</v>
       </c>
       <c r="E1614" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1615">
@@ -31118,7 +31118,7 @@
         <v>1</v>
       </c>
       <c r="E1615" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1616">
@@ -31194,7 +31194,7 @@
         <v>1</v>
       </c>
       <c r="E1619" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1620">
@@ -31213,7 +31213,7 @@
         <v>1</v>
       </c>
       <c r="E1620" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1621">
@@ -31289,7 +31289,7 @@
         <v>1</v>
       </c>
       <c r="E1624" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1625">
@@ -31308,7 +31308,7 @@
         <v>1</v>
       </c>
       <c r="E1625" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1626">
@@ -31574,7 +31574,7 @@
         <v>1</v>
       </c>
       <c r="E1639" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1640">
@@ -31631,7 +31631,7 @@
         <v>1</v>
       </c>
       <c r="E1642" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1643">
@@ -31650,7 +31650,7 @@
         <v>1</v>
       </c>
       <c r="E1643" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1644">
@@ -31726,7 +31726,7 @@
         <v>1</v>
       </c>
       <c r="E1647" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1648">
@@ -31745,7 +31745,7 @@
         <v>1</v>
       </c>
       <c r="E1648" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1649">
@@ -31821,7 +31821,7 @@
         <v>1</v>
       </c>
       <c r="E1652" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1653">
@@ -31840,7 +31840,7 @@
         <v>1</v>
       </c>
       <c r="E1653" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1654">
@@ -32106,7 +32106,7 @@
         <v>1</v>
       </c>
       <c r="E1667" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1668">
@@ -32163,7 +32163,7 @@
         <v>1</v>
       </c>
       <c r="E1670" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1671">
@@ -32182,7 +32182,7 @@
         <v>1</v>
       </c>
       <c r="E1671" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1672">
@@ -32258,7 +32258,7 @@
         <v>1</v>
       </c>
       <c r="E1675" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1676">
@@ -32277,7 +32277,7 @@
         <v>1</v>
       </c>
       <c r="E1676" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1677">
@@ -32353,7 +32353,7 @@
         <v>1</v>
       </c>
       <c r="E1680" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1681">
@@ -32372,7 +32372,7 @@
         <v>1</v>
       </c>
       <c r="E1681" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1682">
@@ -32638,7 +32638,7 @@
         <v>1</v>
       </c>
       <c r="E1695" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1696">
@@ -32695,7 +32695,7 @@
         <v>1</v>
       </c>
       <c r="E1698" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1699">
@@ -32714,7 +32714,7 @@
         <v>1</v>
       </c>
       <c r="E1699" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1700">
@@ -32790,7 +32790,7 @@
         <v>1</v>
       </c>
       <c r="E1703" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1704">
@@ -32809,7 +32809,7 @@
         <v>1</v>
       </c>
       <c r="E1704" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1705">
@@ -32885,7 +32885,7 @@
         <v>1</v>
       </c>
       <c r="E1708" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1709">
@@ -32904,7 +32904,7 @@
         <v>1</v>
       </c>
       <c r="E1709" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1710">
@@ -33170,7 +33170,7 @@
         <v>1</v>
       </c>
       <c r="E1723" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1724">
@@ -33227,7 +33227,7 @@
         <v>1</v>
       </c>
       <c r="E1726" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1727">
@@ -33246,7 +33246,7 @@
         <v>1</v>
       </c>
       <c r="E1727" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1728">
@@ -33322,7 +33322,7 @@
         <v>1</v>
       </c>
       <c r="E1731" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1732">
@@ -33341,7 +33341,7 @@
         <v>1</v>
       </c>
       <c r="E1732" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1733">
@@ -33417,7 +33417,7 @@
         <v>1</v>
       </c>
       <c r="E1736" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1737">
@@ -33436,7 +33436,7 @@
         <v>1</v>
       </c>
       <c r="E1737" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1738">
@@ -33702,7 +33702,7 @@
         <v>1</v>
       </c>
       <c r="E1751" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1752">
@@ -33759,7 +33759,7 @@
         <v>1</v>
       </c>
       <c r="E1754" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1755">
@@ -33778,7 +33778,7 @@
         <v>1</v>
       </c>
       <c r="E1755" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1756">
@@ -33854,7 +33854,7 @@
         <v>1</v>
       </c>
       <c r="E1759" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1760">
@@ -33873,7 +33873,7 @@
         <v>1</v>
       </c>
       <c r="E1760" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1761">
@@ -33949,7 +33949,7 @@
         <v>1</v>
       </c>
       <c r="E1764" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1765">
@@ -33968,7 +33968,7 @@
         <v>1</v>
       </c>
       <c r="E1765" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1766">
@@ -34234,7 +34234,7 @@
         <v>1</v>
       </c>
       <c r="E1779" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1780">
@@ -34291,7 +34291,7 @@
         <v>1</v>
       </c>
       <c r="E1782" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1783">
@@ -34310,7 +34310,7 @@
         <v>1</v>
       </c>
       <c r="E1783" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1784">
@@ -34386,7 +34386,7 @@
         <v>1</v>
       </c>
       <c r="E1787" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1788">
@@ -34405,7 +34405,7 @@
         <v>1</v>
       </c>
       <c r="E1788" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1789">
@@ -34481,7 +34481,7 @@
         <v>1</v>
       </c>
       <c r="E1792" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1793">
@@ -34500,7 +34500,7 @@
         <v>1</v>
       </c>
       <c r="E1793" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1794">
@@ -34766,7 +34766,7 @@
         <v>1</v>
       </c>
       <c r="E1807" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1808">
@@ -34823,7 +34823,7 @@
         <v>1</v>
       </c>
       <c r="E1810" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1811">
@@ -34842,7 +34842,7 @@
         <v>1</v>
       </c>
       <c r="E1811" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1812">
@@ -34918,7 +34918,7 @@
         <v>1</v>
       </c>
       <c r="E1815" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1816">
@@ -34937,7 +34937,7 @@
         <v>1</v>
       </c>
       <c r="E1816" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1817">
@@ -35013,7 +35013,7 @@
         <v>1</v>
       </c>
       <c r="E1820" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1821">
@@ -35032,7 +35032,7 @@
         <v>1</v>
       </c>
       <c r="E1821" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1822">
@@ -35298,7 +35298,7 @@
         <v>1</v>
       </c>
       <c r="E1835" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1836">
@@ -35355,7 +35355,7 @@
         <v>1</v>
       </c>
       <c r="E1838" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1839">
@@ -35374,7 +35374,7 @@
         <v>1</v>
       </c>
       <c r="E1839" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1840">
@@ -35450,7 +35450,7 @@
         <v>1</v>
       </c>
       <c r="E1843" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1844">
@@ -35469,7 +35469,7 @@
         <v>1</v>
       </c>
       <c r="E1844" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1845">
@@ -35545,7 +35545,7 @@
         <v>1</v>
       </c>
       <c r="E1848" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1849">
@@ -35564,7 +35564,7 @@
         <v>1</v>
       </c>
       <c r="E1849" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1850">
@@ -35716,7 +35716,7 @@
         <v>1</v>
       </c>
       <c r="E1857" t="n">
-        <v>810.5806451612898</v>
+        <v>810.5806451612916</v>
       </c>
     </row>
     <row r="1858">
@@ -35830,7 +35830,7 @@
         <v>1</v>
       </c>
       <c r="E1863" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1864">
@@ -36096,7 +36096,7 @@
         <v>1</v>
       </c>
       <c r="E1877" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1878">
@@ -36134,7 +36134,7 @@
         <v>1</v>
       </c>
       <c r="E1879" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="1880">
@@ -36153,7 +36153,7 @@
         <v>1</v>
       </c>
       <c r="E1880" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1881">
@@ -36191,7 +36191,7 @@
         <v>1</v>
       </c>
       <c r="E1882" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1883">
@@ -36210,7 +36210,7 @@
         <v>1</v>
       </c>
       <c r="E1883" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1884">
@@ -36343,7 +36343,7 @@
         <v>1</v>
       </c>
       <c r="E1890" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1891">
@@ -36362,7 +36362,7 @@
         <v>1</v>
       </c>
       <c r="E1891" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1892">
@@ -36419,7 +36419,7 @@
         <v>1</v>
       </c>
       <c r="E1894" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1895">
@@ -36438,7 +36438,7 @@
         <v>1</v>
       </c>
       <c r="E1895" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1896">
@@ -36514,7 +36514,7 @@
         <v>1</v>
       </c>
       <c r="E1899" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1900">
@@ -36533,7 +36533,7 @@
         <v>1</v>
       </c>
       <c r="E1900" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1901">
@@ -36609,7 +36609,7 @@
         <v>1</v>
       </c>
       <c r="E1904" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1905">
@@ -36628,7 +36628,7 @@
         <v>1</v>
       </c>
       <c r="E1905" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1906">
@@ -36894,7 +36894,7 @@
         <v>1</v>
       </c>
       <c r="E1919" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1920">
@@ -36951,7 +36951,7 @@
         <v>1</v>
       </c>
       <c r="E1922" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1923">
@@ -36970,7 +36970,7 @@
         <v>1</v>
       </c>
       <c r="E1923" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1924">
@@ -37046,7 +37046,7 @@
         <v>1</v>
       </c>
       <c r="E1927" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1928">
@@ -37065,7 +37065,7 @@
         <v>1</v>
       </c>
       <c r="E1928" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1929">
@@ -37141,7 +37141,7 @@
         <v>1</v>
       </c>
       <c r="E1932" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1933">
@@ -37160,7 +37160,7 @@
         <v>1</v>
       </c>
       <c r="E1933" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1934">
@@ -37426,7 +37426,7 @@
         <v>1</v>
       </c>
       <c r="E1947" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1948">
@@ -37483,7 +37483,7 @@
         <v>1</v>
       </c>
       <c r="E1950" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1951">
@@ -37502,7 +37502,7 @@
         <v>1</v>
       </c>
       <c r="E1951" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1952">
@@ -37578,7 +37578,7 @@
         <v>1</v>
       </c>
       <c r="E1955" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1956">
@@ -37597,7 +37597,7 @@
         <v>1</v>
       </c>
       <c r="E1956" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1957">
@@ -37673,7 +37673,7 @@
         <v>1</v>
       </c>
       <c r="E1960" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1961">
@@ -37692,7 +37692,7 @@
         <v>1</v>
       </c>
       <c r="E1961" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1962">
@@ -37958,7 +37958,7 @@
         <v>1</v>
       </c>
       <c r="E1975" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1976">
@@ -38015,7 +38015,7 @@
         <v>1</v>
       </c>
       <c r="E1978" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1979">
@@ -38034,7 +38034,7 @@
         <v>1</v>
       </c>
       <c r="E1979" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1980">
@@ -38110,7 +38110,7 @@
         <v>1</v>
       </c>
       <c r="E1983" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1984">
@@ -38129,7 +38129,7 @@
         <v>1</v>
       </c>
       <c r="E1984" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1985">
@@ -38205,7 +38205,7 @@
         <v>1</v>
       </c>
       <c r="E1988" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1989">
@@ -38224,7 +38224,7 @@
         <v>1</v>
       </c>
       <c r="E1989" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1990">
@@ -38490,7 +38490,7 @@
         <v>1</v>
       </c>
       <c r="E2003" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="2004">
@@ -38547,7 +38547,7 @@
         <v>1</v>
       </c>
       <c r="E2006" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="2007">
@@ -38566,7 +38566,7 @@
         <v>1</v>
       </c>
       <c r="E2007" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="2008">
@@ -38642,7 +38642,7 @@
         <v>1</v>
       </c>
       <c r="E2011" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="2012">
@@ -38661,7 +38661,7 @@
         <v>1</v>
       </c>
       <c r="E2012" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="2013">
@@ -38737,7 +38737,7 @@
         <v>1</v>
       </c>
       <c r="E2016" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="2017">
@@ -38756,7 +38756,7 @@
         <v>1</v>
       </c>
       <c r="E2017" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="2018">
@@ -39022,7 +39022,7 @@
         <v>1</v>
       </c>
       <c r="E2031" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="2032">
@@ -39079,7 +39079,7 @@
         <v>1</v>
       </c>
       <c r="E2034" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="2035">
@@ -39098,7 +39098,7 @@
         <v>1</v>
       </c>
       <c r="E2035" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="2036">
@@ -39174,7 +39174,7 @@
         <v>1</v>
       </c>
       <c r="E2039" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="2040">
@@ -39193,7 +39193,7 @@
         <v>1</v>
       </c>
       <c r="E2040" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="2041">
@@ -39269,7 +39269,7 @@
         <v>1</v>
       </c>
       <c r="E2044" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="2045">
@@ -39288,7 +39288,7 @@
         <v>1</v>
       </c>
       <c r="E2045" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="2046">
@@ -39554,7 +39554,7 @@
         <v>1</v>
       </c>
       <c r="E2059" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="2060">
@@ -39611,7 +39611,7 @@
         <v>1</v>
       </c>
       <c r="E2062" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="2063">
@@ -39630,7 +39630,7 @@
         <v>1</v>
       </c>
       <c r="E2063" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="2064">
@@ -39706,7 +39706,7 @@
         <v>1</v>
       </c>
       <c r="E2067" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="2068">
@@ -39725,7 +39725,7 @@
         <v>1</v>
       </c>
       <c r="E2068" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="2069">
@@ -39801,7 +39801,7 @@
         <v>1</v>
       </c>
       <c r="E2072" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="2073">
@@ -39820,7 +39820,7 @@
         <v>1</v>
       </c>
       <c r="E2073" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="2074">
@@ -40086,7 +40086,7 @@
         <v>1</v>
       </c>
       <c r="E2087" t="n">
-        <v>1955.913978494624</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="2088">
@@ -40143,7 +40143,7 @@
         <v>1</v>
       </c>
       <c r="E2090" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="2091">
@@ -40162,7 +40162,7 @@
         <v>1</v>
       </c>
       <c r="E2091" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="2092">
@@ -40238,7 +40238,7 @@
         <v>1</v>
       </c>
       <c r="E2095" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="2096">
@@ -40257,7 +40257,7 @@
         <v>1</v>
       </c>
       <c r="E2096" t="n">
-        <v>2175.967741935483</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="2097">
@@ -40333,7 +40333,7 @@
         <v>1</v>
       </c>
       <c r="E2100" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="2101">
@@ -40352,7 +40352,7 @@
         <v>1</v>
       </c>
       <c r="E2101" t="n">
-        <v>1955.913978494624</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
   </sheetData>
